--- a/Оценка.xlsx
+++ b/Оценка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\My_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A245101A-33C0-402C-8D62-1082162D2E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F10101-88A3-422B-8402-4B3C0CEE95DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
